--- a/battleship/Dokumentation/Button_zuweisung.xlsx
+++ b/battleship/Dokumentation/Button_zuweisung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Button</t>
   </si>
@@ -39,6 +39,99 @@
   </si>
   <si>
     <t>bt_new_game</t>
+  </si>
+  <si>
+    <t>Battleshipmenue</t>
+  </si>
+  <si>
+    <t>Highscore</t>
+  </si>
+  <si>
+    <t>bt_highscore</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>bt_credits</t>
+  </si>
+  <si>
+    <t>Battleshipedit</t>
+  </si>
+  <si>
+    <t>Codekonvention</t>
+  </si>
+  <si>
+    <t>Startet neues spiel</t>
+  </si>
+  <si>
+    <t>Zeigt die Highscore Liste an</t>
+  </si>
+  <si>
+    <t>Zeigt die Credits an</t>
+  </si>
+  <si>
+    <t>bt_ready</t>
+  </si>
+  <si>
+    <t>bt_back</t>
+  </si>
+  <si>
+    <t>lb_ship1</t>
+  </si>
+  <si>
+    <t>lb_ship2</t>
+  </si>
+  <si>
+    <t>lb_ship3</t>
+  </si>
+  <si>
+    <t>bt_ship1</t>
+  </si>
+  <si>
+    <t>bt_ship2</t>
+  </si>
+  <si>
+    <t>bt_ship3</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Bestätigt das man bereit ist</t>
+  </si>
+  <si>
+    <t>Man kommt zum Menü zurück</t>
+  </si>
+  <si>
+    <t>Zeigt wie viele von Schiff 1 noch plaziert werden können</t>
+  </si>
+  <si>
+    <t>Zeigt wie viele von Schiff 2 noch plaziert werden können</t>
+  </si>
+  <si>
+    <t>Zeigt wie viele von Schiff 3 noch plaziert werden können</t>
+  </si>
+  <si>
+    <t>Plaziert Schiff 1</t>
+  </si>
+  <si>
+    <t>Plaziert Schiff 2</t>
+  </si>
+  <si>
+    <t>Plaziert Schiff 3</t>
+  </si>
+  <si>
+    <t>Spashscreen</t>
+  </si>
+  <si>
+    <t>splash_screen</t>
+  </si>
+  <si>
+    <t>Klicken um zum Menü zu gelangen</t>
   </si>
 </sst>
 </file>
@@ -359,43 +452,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
